--- a/padronn-web/src/main/webapp/WEB-INF/formato/Reporte-Detalle_EESS_edad.xlsx
+++ b/padronn-web/src/main/webapp/WEB-INF/formato/Reporte-Detalle_EESS_edad.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Dominios" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DETALLE_EESS_EDAD!$A$4:$X$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DETALLE_EESS_EDAD!$A$4:$V$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="144">
   <si>
     <t>Lengua de la madre</t>
   </si>
@@ -467,18 +467,6 @@
   </si>
   <si>
     <t>FECHA DE VISITA</t>
-  </si>
-  <si>
-    <t>CÓDIGO RENAES</t>
-  </si>
-  <si>
-    <t>CÓDIGO RENAES DEL ESTABLECIMIENTO DE SALUD</t>
-  </si>
-  <si>
-    <t>FRECUENCIA DE ATENCION</t>
-  </si>
-  <si>
-    <t>¿MENOR ENCONTRADO?</t>
   </si>
 </sst>
 </file>
@@ -680,18 +668,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -703,8 +679,20 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -720,14 +708,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -1099,321 +1080,298 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="13.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18" style="3" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="37.7109375" style="4" customWidth="1"/>
-    <col min="10" max="11" width="26.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="30.85546875" style="3" customWidth="1"/>
-    <col min="13" max="14" width="18.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="26.85546875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="30.28515625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="59.7109375" style="3" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="18" style="3" customWidth="1"/>
-    <col min="20" max="21" width="27.85546875" style="3" customWidth="1"/>
-    <col min="22" max="22" width="37.7109375" style="3" customWidth="1"/>
-    <col min="23" max="23" width="20.28515625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="43.28515625" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" style="4" customWidth="1"/>
+    <col min="8" max="9" width="26.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" style="3" customWidth="1"/>
+    <col min="11" max="12" width="18.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="59.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="18" style="3" customWidth="1"/>
+    <col min="18" max="19" width="27.85546875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="37.7109375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="20.28515625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="43.28515625" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:22" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="14" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-    </row>
-    <row r="2" spans="1:24" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9" t="s">
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+    </row>
+    <row r="2" spans="1:22" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="F2" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="G2" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="H2" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="I2" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="J2" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="K2" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="L2" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="M2" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="N2" s="12" t="s">
         <v>122</v>
       </c>
+      <c r="O2" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="Q2" s="9" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="T2" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="S2" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="T2" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="U2" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="V2" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-    </row>
-    <row r="4" spans="1:24" s="6" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+    </row>
+    <row r="4" spans="1:22" s="6" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="X4" s="7" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:X4"/>
-  <mergeCells count="26">
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="J2:J3"/>
+  <autoFilter ref="A4:V4"/>
+  <mergeCells count="24">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="N2:N3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="F1:R1"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="D1:P1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1 F1:F2 I2 G2 S2:X2 F4:X4 Y1:XFD4 A5:XFD1048576 D1:E1">
-    <cfRule type="expression" dxfId="10" priority="21">
-      <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
+  <conditionalFormatting sqref="A1:C1 D1:D2 G2 E2 Q2:V2 D4:V4 W1:XFD4 A5:XFD1048576">
     <cfRule type="expression" dxfId="9" priority="20">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2">
+  <conditionalFormatting sqref="F2">
     <cfRule type="expression" dxfId="8" priority="19">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2 P2:Q2">
+  <conditionalFormatting sqref="P2">
     <cfRule type="expression" dxfId="7" priority="18">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4 D4:E4">
-    <cfRule type="expression" dxfId="6" priority="14">
+  <conditionalFormatting sqref="H2 N2:O2">
+    <cfRule type="expression" dxfId="6" priority="17">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
-    <cfRule type="expression" dxfId="5" priority="7">
+  <conditionalFormatting sqref="A4:C4">
+    <cfRule type="expression" dxfId="5" priority="13">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2">
+  <conditionalFormatting sqref="M2">
     <cfRule type="expression" dxfId="4" priority="6">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2">
+  <conditionalFormatting sqref="L2">
     <cfRule type="expression" dxfId="3" priority="5">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2">
+  <conditionalFormatting sqref="I2">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="J2">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1 B4:C4">
+  <conditionalFormatting sqref="K2">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
